--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_67_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_67_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[3.557023833475423, 4.257978752205904]</t>
+          <t>[3.5610394274846096, 4.253963158196718]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.05917425939896326, 0.4180080496628209]</t>
+          <t>[0.05907976897680456, 0.4181025400849796]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.01029211925703</v>
+        <v>0.01032943670833508</v>
       </c>
       <c r="V2" t="n">
-        <v>0.01029211925703</v>
+        <v>0.01032943670833508</v>
       </c>
       <c r="W2" t="n">
         <v>14.32864864864886</v>
